--- a/Шаблоны/Scenar8.xlsx
+++ b/Шаблоны/Scenar8.xlsx
@@ -843,6 +843,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -991,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1039,6 +1042,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1346,7 +1350,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45505</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,12 +1440,450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="25"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="25"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="25"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="25"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="25"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="25"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="25"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="25"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="25"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="25"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="25"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="25"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="25"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="25"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="25"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="25"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="25"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="25"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="25"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="25"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="25"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="25"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="25"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="25"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="25"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="25"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="25"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="25"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="25"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="25"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="25"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="25"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="25"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="25"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="25"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="25"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="25"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="25"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="25"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="25"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="25"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="25"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="25"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="25"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="25"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="25"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="25"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="25"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="25"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="25"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="25"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="25"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="25"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="25"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="25"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="25"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="25"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="25"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="25"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="25"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="25"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="25"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="25"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="25"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="25"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="25"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="25"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="25"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="25"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="25"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="25"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="25"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="25"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="25"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="25"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="25"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="25"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="25"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="25"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="25"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="25"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="25"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="25"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="25"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="25"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="25"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="25"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="25"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="25"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="25"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="25"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="25"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="25"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="25"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="25"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="25"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="25"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="25"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="25"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="25"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="25"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="25"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="25"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="25"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="25"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="25"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1450,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,7 +2195,9 @@
       <c r="D14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
       <c r="F14" s="14" t="s">
         <v>77</v>
       </c>
@@ -1772,7 +2216,9 @@
       <c r="D15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
       <c r="F15" s="14" t="s">
         <v>78</v>
       </c>
@@ -1892,7 +2338,9 @@
       <c r="D21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
       <c r="F21" s="14" t="s">
         <v>77</v>
       </c>
@@ -1911,7 +2359,9 @@
       <c r="D22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
       <c r="F22" s="14" t="s">
         <v>78</v>
       </c>
@@ -2647,7 +3097,9 @@
       <c r="D58" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9">
+        <v>3</v>
+      </c>
       <c r="F58" s="14" t="s">
         <v>30</v>
       </c>
@@ -2666,7 +3118,9 @@
       <c r="D59" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <v>3</v>
+      </c>
       <c r="F59" s="14" t="s">
         <v>78</v>
       </c>
@@ -3306,7 +3760,9 @@
       <c r="D91" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E91" s="9"/>
+      <c r="E91" s="9">
+        <v>4</v>
+      </c>
       <c r="F91" s="14" t="s">
         <v>30</v>
       </c>
@@ -3325,7 +3781,9 @@
       <c r="D92" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E92" s="9"/>
+      <c r="E92" s="9">
+        <v>4</v>
+      </c>
       <c r="F92" s="14" t="s">
         <v>78</v>
       </c>
@@ -3477,7 +3935,9 @@
       <c r="D100" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E100" s="9"/>
+      <c r="E100" s="9">
+        <v>5</v>
+      </c>
       <c r="F100" s="14" t="s">
         <v>30</v>
       </c>
@@ -3496,7 +3956,9 @@
       <c r="D101" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="9"/>
+      <c r="E101" s="9">
+        <v>5</v>
+      </c>
       <c r="F101" s="14" t="s">
         <v>78</v>
       </c>
@@ -3610,7 +4072,9 @@
       <c r="D107" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E107" s="9"/>
+      <c r="E107" s="9">
+        <v>6</v>
+      </c>
       <c r="F107" s="14" t="s">
         <v>30</v>
       </c>
@@ -3629,7 +4093,9 @@
       <c r="D108" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="9"/>
+      <c r="E108" s="9">
+        <v>6</v>
+      </c>
       <c r="F108" s="21" t="s">
         <v>29</v>
       </c>
@@ -3781,7 +4247,9 @@
       <c r="D116" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E116" s="9"/>
+      <c r="E116" s="9">
+        <v>7</v>
+      </c>
       <c r="F116" s="14" t="s">
         <v>30</v>
       </c>
@@ -3800,7 +4268,9 @@
       <c r="D117" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="9"/>
+      <c r="E117" s="9">
+        <v>7</v>
+      </c>
       <c r="F117" s="21" t="s">
         <v>29</v>
       </c>
@@ -4028,7 +4498,9 @@
       <c r="D129" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E129" s="9"/>
+      <c r="E129" s="9">
+        <v>8</v>
+      </c>
       <c r="F129" s="14" t="s">
         <v>30</v>
       </c>
@@ -4047,7 +4519,9 @@
       <c r="D130" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="9"/>
+      <c r="E130" s="9">
+        <v>8</v>
+      </c>
       <c r="F130" s="14" t="s">
         <v>29</v>
       </c>

--- a/Шаблоны/Scenar8.xlsx
+++ b/Шаблоны/Scenar8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="233">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -719,15 +719,9 @@
     <t>Произвести осмотр опорно-стержневой изоляции ЛР 110 Заря.</t>
   </si>
   <si>
-    <t>ОРУ_110_ЛР110_Заря_БлокировочныйКлюч</t>
-  </si>
-  <si>
     <t>Вставить деблокировочный ключ в замок ЛР 110 Заря</t>
   </si>
   <si>
-    <t>Кнопкой с блока управления отключить ЛР 110 Заря.</t>
-  </si>
-  <si>
     <t>Визуально убедиться в отключенном положении ЛР 110 Заря.</t>
   </si>
   <si>
@@ -737,15 +731,6 @@
     <t>На привод ЛР 110 Заря вывесить плакат «НЕ ВКЛЮЧАТЬ! Работают люди».</t>
   </si>
   <si>
-    <t>ОРУ_110_Автомат_ЛР110_Т1</t>
-  </si>
-  <si>
-    <t>Отключить автомат цепей питания привода ЛР 110 Т1.</t>
-  </si>
-  <si>
-    <t>ОРУ_110_Плакат_ЛР110</t>
-  </si>
-  <si>
     <t>На автомат цепей питания привода ЛР 110 Заря вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
   </si>
   <si>
@@ -755,15 +740,9 @@
     <t>Произвести осмотр опорно-стержневой изоляции ШР 110 Заря.</t>
   </si>
   <si>
-    <t>ОРУ_110_ШР110_Заря_БлокировочныйКлюч</t>
-  </si>
-  <si>
     <t>Вставить деблокировочный ключ в замок ШР 110 Заря.</t>
   </si>
   <si>
-    <t>Кнопкой с блока управления отключить ШР 110 Заря.</t>
-  </si>
-  <si>
     <t>ОРУ_110_Плакат_ШР110</t>
   </si>
   <si>
@@ -776,9 +755,6 @@
     <t>Отключить автомат цепей питания привода ШР 110 Заря.</t>
   </si>
   <si>
-    <t>ОРУ_110_Плакат_ШР110_Заря</t>
-  </si>
-  <si>
     <t>На автомат цепей питания привода ШР 110 Заря вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
   </si>
   <si>
@@ -788,9 +764,6 @@
     <t>Взять указатель напряжения 110 кВ.</t>
   </si>
   <si>
-    <t>ОРУ_110_Указатель_110кВ</t>
-  </si>
-  <si>
     <t>Проверить исправность указателя напряжения 110 кВ, прикосновением к токоведущим частям, заведомо находящимся под напряжением - к жесткой ошиновке 110 кВ.</t>
   </si>
   <si>
@@ -800,9 +773,6 @@
     <t>Осмотреть опорно-стержневую изоляцию ЗНВ ЛР 110 Заря.</t>
   </si>
   <si>
-    <t>ОРУ_110_БлокировочныйКлюч</t>
-  </si>
-  <si>
     <t>Вставить деблокировочный ключ</t>
   </si>
   <si>
@@ -818,12 +788,6 @@
     <t>Включить ЗНВ ШР 110 Заря.</t>
   </si>
   <si>
-    <t>ОРУ_110_ЗОН110_Т1</t>
-  </si>
-  <si>
-    <t>ОРУ_110_Перчатки_Проверить</t>
-  </si>
-  <si>
     <t>Отключить ЗОН 110 Т1.</t>
   </si>
   <si>
@@ -837,6 +801,57 @@
   </si>
   <si>
     <t>Визуально проверить отключенное состояние ЗОН 110 Т2.</t>
+  </si>
+  <si>
+    <t>Ключом с блока управления отключить ЛР 110 Заря.</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ЛР110_Заря_ДеблокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ЛР110_Заря_Ключ</t>
+  </si>
+  <si>
+    <t>ОРУ_110_Автомат_ЛР110_Заря</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей питания привода ЛР 110 Заря.</t>
+  </si>
+  <si>
+    <t>ОРУ_110_Плакат_Автомат_ЛР110_Заря</t>
+  </si>
+  <si>
+    <t>Ключом с блока управления отключить ШР 110 Заря.</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ШР110_Заря_Ключ</t>
+  </si>
+  <si>
+    <t>Визуально убедиться в отключенном положении ШР 110 Заря.</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ШР110_Заря_ДеблокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>ОРУ_110_Плакат_Автомат_ШР110_Заря</t>
+  </si>
+  <si>
+    <t>ОРУ110_110кВ_2секция</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ЗНВ_ЛР110_ДеблокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ЗНВ_ЛР110_Заря</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ЗНВ_ШР110_Заря</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное положение ЗНВ ШР 110 Заря.</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ЗНВ_ШР110_ДеблокировочныйКлюч</t>
   </si>
 </sst>
 </file>
@@ -846,12 +861,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,6 +969,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -994,55 +1023,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1350,7 +1387,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45509</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,448 +1477,560 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B143"/>
+  <dimension ref="B1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="25"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="25"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="25"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="25"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="25"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="25"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="25"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="25"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="25"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="25"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="25"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="25"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="25"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="25"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="25"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="25"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="25"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="25"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="25"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="25"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="25"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="25"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="25"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="25"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="25"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="25"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="25"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="25"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="25"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="25"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="25"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="25"/>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="F38" s="27"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="23"/>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="23"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="23"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="23"/>
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="23"/>
+      <c r="F51" s="27"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="23"/>
+      <c r="F53" s="27"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="23"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="23"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="23"/>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="23"/>
+      <c r="F59" s="27"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="23"/>
+      <c r="F60" s="27"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="23"/>
+      <c r="F61" s="27"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="23"/>
+      <c r="F62" s="27"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+      <c r="F63" s="27"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="23"/>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="23"/>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="23"/>
+      <c r="F66" s="27"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="23"/>
+      <c r="F67" s="27"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="23"/>
+      <c r="F68" s="27"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="23"/>
+      <c r="F69" s="27"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="23"/>
+      <c r="F70" s="27"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="23"/>
+      <c r="F71" s="27"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="23"/>
+      <c r="F72" s="27"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="23"/>
+      <c r="F73" s="27"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="23"/>
+      <c r="F74" s="27"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="23"/>
+      <c r="F75" s="27"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="23"/>
+      <c r="F76" s="27"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="23"/>
+      <c r="F77" s="27"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="23"/>
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="23"/>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="23"/>
+      <c r="F80" s="27"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="23"/>
+      <c r="F81" s="27"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="23"/>
+      <c r="F82" s="27"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="23"/>
+      <c r="F83" s="27"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="23"/>
+      <c r="F84" s="27"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="23"/>
+      <c r="F85" s="27"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="23"/>
+      <c r="F86" s="27"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="23"/>
+      <c r="F87" s="27"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="23"/>
+      <c r="F88" s="27"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="23"/>
+      <c r="F89" s="27"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="23"/>
+      <c r="F90" s="27"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="23"/>
+      <c r="F91" s="27"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="23"/>
+      <c r="F92" s="27"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="23"/>
+      <c r="F93" s="27"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="23"/>
+      <c r="F94" s="27"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="23"/>
+      <c r="F95" s="27"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="23"/>
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="23"/>
+      <c r="F97" s="27"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="23"/>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="23"/>
+      <c r="F99" s="27"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="23"/>
+      <c r="F100" s="27"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="23"/>
+      <c r="F101" s="27"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="23"/>
+      <c r="F102" s="27"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="23"/>
+      <c r="F103" s="27"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="23"/>
+      <c r="F104" s="27"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="23"/>
+      <c r="F105" s="27"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="23"/>
+      <c r="F106" s="27"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="23"/>
+      <c r="F107" s="27"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="23"/>
+      <c r="F108" s="27"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="23"/>
+      <c r="F109" s="27"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="23"/>
+      <c r="F110" s="27"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="23"/>
+      <c r="F111" s="27"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="23"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="25"/>
+      <c r="B113" s="23"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="25"/>
+      <c r="B114" s="23"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="25"/>
+      <c r="B115" s="23"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="25"/>
+      <c r="B116" s="23"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="25"/>
+      <c r="B117" s="23"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="25"/>
+      <c r="B118" s="23"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="25"/>
+      <c r="B119" s="23"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="25"/>
+      <c r="B120" s="23"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="25"/>
+      <c r="B121" s="23"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="25"/>
+      <c r="B122" s="23"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="25"/>
+      <c r="B123" s="23"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="25"/>
+      <c r="B124" s="23"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="25"/>
+      <c r="B125" s="23"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="25"/>
+      <c r="B126" s="23"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="25"/>
+      <c r="B127" s="23"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="25"/>
+      <c r="B128" s="23"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="25"/>
+      <c r="B129" s="23"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="25"/>
+      <c r="B130" s="23"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="25"/>
+      <c r="B131" s="23"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="25"/>
+      <c r="B132" s="23"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="25"/>
+      <c r="B133" s="23"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="25"/>
+      <c r="B134" s="23"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="25"/>
+      <c r="B135" s="23"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="25"/>
+      <c r="B136" s="23"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="25"/>
+      <c r="B137" s="23"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="25"/>
+      <c r="B138" s="23"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="25"/>
+      <c r="B139" s="23"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="25"/>
+      <c r="B140" s="23"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="25"/>
+      <c r="B141" s="23"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="25"/>
+      <c r="B142" s="23"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="25"/>
+      <c r="B143" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,15 +2039,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" customWidth="1"/>
@@ -3738,10 +3887,12 @@
       <c r="C90" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="9"/>
+      <c r="D90" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="9">
+        <v>1</v>
+      </c>
       <c r="F90" s="14" t="s">
         <v>187</v>
       </c>
@@ -3796,15 +3947,15 @@
         <v>92</v>
       </c>
       <c r="B93" s="9"/>
-      <c r="C93" s="20" t="s">
-        <v>188</v>
+      <c r="C93" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="21" t="s">
-        <v>189</v>
+      <c r="F93" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>32</v>
@@ -3815,15 +3966,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="9"/>
-      <c r="C94" s="20" t="s">
-        <v>186</v>
+      <c r="C94" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="9"/>
+      <c r="E94" s="9">
+        <v>1</v>
+      </c>
       <c r="F94" s="14" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>31</v>
@@ -3834,15 +3987,17 @@
         <v>94</v>
       </c>
       <c r="B95" s="9"/>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="22" t="s">
-        <v>191</v>
+      <c r="D95" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="9">
+        <v>2</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>33</v>
@@ -3853,15 +4008,15 @@
         <v>95</v>
       </c>
       <c r="B96" s="9"/>
-      <c r="C96" s="20" t="s">
-        <v>192</v>
+      <c r="C96" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G96" s="15" t="s">
         <v>34</v>
@@ -3873,14 +4028,16 @@
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="10" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E97" s="9"/>
+      <c r="E97" s="9">
+        <v>1</v>
+      </c>
       <c r="F97" s="14" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G97" s="15" t="s">
         <v>34</v>
@@ -3892,14 +4049,14 @@
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="10" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>34</v>
@@ -3911,14 +4068,16 @@
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1</v>
+      </c>
       <c r="F99" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>33</v>
@@ -3972,14 +4131,14 @@
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="10" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E102" s="9"/>
-      <c r="F102" s="21" t="s">
-        <v>201</v>
+      <c r="F102" s="20" t="s">
+        <v>195</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>32</v>
@@ -3991,113 +4150,117 @@
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="10" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="21" t="s">
-        <v>202</v>
+        <v>41</v>
+      </c>
+      <c r="E103" s="9">
+        <v>1</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>103</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="10" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E104" s="9">
+        <v>2</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>104</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>37</v>
+        <v>196</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="21" t="s">
-        <v>206</v>
+      <c r="F105" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="G105" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>105</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="9">
+        <v>1</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="G106" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>106</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="9">
-        <v>6</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>30</v>
+        <v>226</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="G107" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>107</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E108" s="9">
         <v>6</v>
       </c>
-      <c r="F108" s="21" t="s">
-        <v>29</v>
+      <c r="F108" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>34</v>
@@ -4109,14 +4272,16 @@
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="21" t="s">
-        <v>210</v>
+        <v>51</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="9">
+        <v>6</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="G109" s="15" t="s">
         <v>34</v>
@@ -4128,14 +4293,14 @@
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E110" s="9"/>
-      <c r="F110" s="24" t="s">
-        <v>212</v>
+      <c r="F110" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="G110" s="15" t="s">
         <v>34</v>
@@ -4147,14 +4312,14 @@
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="10" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E111" s="9"/>
-      <c r="F111" s="24" t="s">
-        <v>213</v>
+      <c r="F111" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>34</v>
@@ -4166,14 +4331,16 @@
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="21" t="s">
-        <v>214</v>
+        <v>229</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="9">
+        <v>1</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>33</v>
@@ -4185,14 +4352,14 @@
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="10" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="21" t="s">
-        <v>216</v>
+      <c r="F113" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="G113" s="18" t="s">
         <v>32</v>
@@ -4204,14 +4371,16 @@
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="10" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="21" t="s">
-        <v>217</v>
+      <c r="E114" s="9">
+        <v>2</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="G114" s="13" t="s">
         <v>31</v>
@@ -4223,14 +4392,16 @@
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="21" t="s">
-        <v>218</v>
+        <v>229</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="9">
+        <v>2</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>33</v>
@@ -4271,7 +4442,7 @@
       <c r="E117" s="9">
         <v>7</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G117" s="15" t="s">
@@ -4284,14 +4455,14 @@
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E118" s="9"/>
-      <c r="F118" s="21" t="s">
-        <v>210</v>
+      <c r="F118" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="G118" s="15" t="s">
         <v>34</v>
@@ -4303,14 +4474,14 @@
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="10" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E119" s="9"/>
-      <c r="F119" s="24" t="s">
-        <v>212</v>
+      <c r="F119" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="G119" s="15" t="s">
         <v>34</v>
@@ -4322,14 +4493,16 @@
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="21" t="s">
-        <v>219</v>
+        <v>230</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E120" s="9">
+        <v>1</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="G120" s="16" t="s">
         <v>33</v>
@@ -4341,14 +4514,14 @@
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E121" s="9"/>
-      <c r="F121" s="21" t="s">
-        <v>216</v>
+      <c r="F121" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="G121" s="18" t="s">
         <v>32</v>
@@ -4360,14 +4533,16 @@
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="10" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="9"/>
+      <c r="E122" s="9">
+        <v>2</v>
+      </c>
       <c r="F122" s="14" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G122" s="13" t="s">
         <v>31</v>
@@ -4379,17 +4554,19 @@
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>34</v>
+        <v>230</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="9">
+        <v>2</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4398,33 +4575,37 @@
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E124" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="9">
+        <v>3</v>
+      </c>
       <c r="F124" s="14" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G124" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>124</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E125" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="E125" s="9">
+        <v>8</v>
+      </c>
       <c r="F125" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125" s="15" t="s">
         <v>34</v>
@@ -4436,36 +4617,40 @@
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="9">
+        <v>8</v>
+      </c>
       <c r="F126" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>126</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="10" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E127" s="9">
+        <v>1</v>
+      </c>
       <c r="F127" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>33</v>
+        <v>211</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4474,17 +4659,19 @@
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E128" s="9"/>
+      <c r="E128" s="9">
+        <v>4</v>
+      </c>
       <c r="F128" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>34</v>
+        <v>212</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4493,37 +4680,37 @@
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>44</v>
+        <v>92</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E129" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="G129" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>129</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E130" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G130" s="15" t="s">
         <v>34</v>
@@ -4535,40 +4722,65 @@
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E131" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="9">
+        <v>9</v>
+      </c>
       <c r="F131" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>131</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E132" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E132" s="9">
+        <v>1</v>
+      </c>
       <c r="F132" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G132" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
+        <v>132</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" s="9">
+        <v>4</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G133" s="16" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Шаблоны/Scenar8.xlsx
+++ b/Шаблоны/Scenar8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="234">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -241,42 +241,6 @@
     <t>ОПУ_2У_Амперметр_Т1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Проверить нагрузку на трансформаторе Т1. По амперметру проверить наличие нагрузки на стороне 35 Т1. Ток равен </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>300</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>А.</t>
-    </r>
-  </si>
-  <si>
     <t>ОПУ_5У_ТН-2_Киловольтметр</t>
   </si>
   <si>
@@ -400,39 +364,7 @@
     <t>ОПУ_2У_6кВ_Т1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">По амперметру проверить наличие нагрузки на стороне 6 кВ Т1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1800А</t>
-    </r>
-  </si>
-  <si>
     <t>ОПУ_3У_Амперметр_СВ6</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">По амперметру проверить наличие нагрузки на СВ 6. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>900А</t>
-    </r>
   </si>
   <si>
     <t>ОПУ_3У_АВР_6кВ</t>
@@ -472,22 +404,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">По амперметру проверить наличие нагрузки на СВ 6. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0А</t>
-    </r>
-  </si>
-  <si>
     <t>ОПУ_2У_Ключ_В6Т1</t>
   </si>
   <si>
@@ -500,22 +416,6 @@
     <t>Проверить отключенное положение В 6 Т1 по сигнальной лампе.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">По амперметру проверить отсутствие нагрузки на В 6 Т1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0А</t>
-    </r>
-  </si>
-  <si>
     <t>ОПУ_2У_В6Т1_Плакат</t>
   </si>
   <si>
@@ -612,41 +512,9 @@
     <t>ОПУ_4У_Амперметр_В35Т2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">По амперметру убедиться в наличии нагрузки на В 35 Т2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>150А</t>
-    </r>
-  </si>
-  <si>
     <t>ОПУ_3У_Амперметр_СВ35</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">По амперметру убедиться в наличии нагрузки на СВ 35. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>150А</t>
-    </r>
-  </si>
-  <si>
     <t>По киловольтметру ТН-2 35 кВ проверить уровень напряжения на 2 СШ 35 кВ. Напряжение не равно 35 кВ.</t>
   </si>
   <si>
@@ -852,6 +720,30 @@
   </si>
   <si>
     <t>ОРУ_110_ЗНВ_ШР110_ДеблокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>По амперметру проверить наличие нагрузки на стороне 6 кВ Т1.</t>
+  </si>
+  <si>
+    <t>По амперметру проверить наличие нагрузки на СВ 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По амперметру проверить отсутствие нагрузки на В 6 Т1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">По амперметру проверить наличие нагрузки на СВ 6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">По амперметру проверить наличие нагрузки на В 6 Т2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">По амперметру убедиться в наличии нагрузки на В 35 Т2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">По амперметру убедиться в наличии нагрузки на СВ 35. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить нагрузку на трансформаторе Т1. По амперметру проверить наличие нагрузки на стороне 35 Т1. </t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1279,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>33</v>
@@ -2273,7 +2165,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>41</v>
@@ -2282,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>33</v>
@@ -2295,7 +2187,7 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>41</v>
@@ -2304,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>33</v>
@@ -2317,7 +2209,7 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>41</v>
@@ -2326,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>33</v>
@@ -2348,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>34</v>
@@ -2369,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>34</v>
@@ -2381,14 +2273,14 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>34</v>
@@ -2400,14 +2292,14 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>34</v>
@@ -2419,7 +2311,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>41</v>
@@ -2428,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>34</v>
@@ -2440,7 +2332,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>37</v>
@@ -2449,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>31</v>
@@ -2461,7 +2353,7 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>41</v>
@@ -2470,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>33</v>
@@ -2491,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>34</v>
@@ -2512,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>34</v>
@@ -2524,14 +2416,14 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>34</v>
@@ -2543,14 +2435,14 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>34</v>
@@ -2562,7 +2454,7 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>41</v>
@@ -2571,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>34</v>
@@ -2583,7 +2475,7 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>37</v>
@@ -2592,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>31</v>
@@ -2604,7 +2496,7 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>41</v>
@@ -2613,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>33</v>
@@ -2634,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>32</v>
@@ -2697,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>33</v>
@@ -2709,7 +2601,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>41</v>
@@ -2718,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>33</v>
@@ -2739,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>31</v>
@@ -2751,14 +2643,14 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>34</v>
@@ -2770,14 +2662,14 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>33</v>
@@ -2789,7 +2681,7 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>41</v>
@@ -2798,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>33</v>
@@ -2810,7 +2702,7 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>37</v>
@@ -2819,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>32</v>
@@ -2831,14 +2723,14 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>34</v>
@@ -2850,7 +2742,7 @@
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>41</v>
@@ -2859,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>33</v>
@@ -2871,7 +2763,7 @@
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>41</v>
@@ -2880,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>33</v>
@@ -2892,14 +2784,14 @@
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>33</v>
@@ -2911,7 +2803,7 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>37</v>
@@ -2920,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>32</v>
@@ -2932,7 +2824,7 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>41</v>
@@ -2941,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>33</v>
@@ -2953,7 +2845,7 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>41</v>
@@ -2962,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G44" s="16"/>
     </row>
@@ -2972,7 +2864,7 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>41</v>
@@ -2981,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>33</v>
@@ -2993,7 +2885,7 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>37</v>
@@ -3002,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>32</v>
@@ -3014,7 +2906,7 @@
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>41</v>
@@ -3023,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>33</v>
@@ -3035,7 +2927,7 @@
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>41</v>
@@ -3044,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>33</v>
@@ -3056,14 +2948,14 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>34</v>
@@ -3075,7 +2967,7 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>41</v>
@@ -3084,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>33</v>
@@ -3096,7 +2988,7 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>41</v>
@@ -3105,7 +2997,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>33</v>
@@ -3117,7 +3009,7 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>41</v>
@@ -3126,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>33</v>
@@ -3138,7 +3030,7 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>41</v>
@@ -3147,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>31</v>
@@ -3159,7 +3051,7 @@
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>41</v>
@@ -3168,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>33</v>
@@ -3180,7 +3072,7 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>41</v>
@@ -3189,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>33</v>
@@ -3201,7 +3093,7 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>37</v>
@@ -3210,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>34</v>
@@ -3222,14 +3114,14 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>34</v>
@@ -3271,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>34</v>
@@ -3283,14 +3175,14 @@
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>31</v>
@@ -3302,14 +3194,14 @@
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>34</v>
@@ -3321,14 +3213,14 @@
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>34</v>
@@ -3349,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>33</v>
@@ -3361,7 +3253,7 @@
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>41</v>
@@ -3370,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>33</v>
@@ -3382,7 +3274,7 @@
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>37</v>
@@ -3391,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>32</v>
@@ -3403,7 +3295,7 @@
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>37</v>
@@ -3412,7 +3304,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>32</v>
@@ -3424,7 +3316,7 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>41</v>
@@ -3433,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>33</v>
@@ -3445,7 +3337,7 @@
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>37</v>
@@ -3454,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>31</v>
@@ -3466,7 +3358,7 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>41</v>
@@ -3475,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>33</v>
@@ -3487,14 +3379,14 @@
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>34</v>
@@ -3506,7 +3398,7 @@
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>41</v>
@@ -3515,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>33</v>
@@ -3527,14 +3419,14 @@
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="14" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>33</v>
@@ -3546,7 +3438,7 @@
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>41</v>
@@ -3555,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>33</v>
@@ -3567,7 +3459,7 @@
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>41</v>
@@ -3576,7 +3468,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>31</v>
@@ -3588,7 +3480,7 @@
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>41</v>
@@ -3597,7 +3489,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>33</v>
@@ -3609,7 +3501,7 @@
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>37</v>
@@ -3618,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G76" s="15" t="s">
         <v>34</v>
@@ -3630,14 +3522,14 @@
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>34</v>
@@ -3649,14 +3541,14 @@
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>33</v>
@@ -3668,14 +3560,14 @@
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>33</v>
@@ -3687,14 +3579,14 @@
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>34</v>
@@ -3715,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>32</v>
@@ -3736,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>31</v>
@@ -3767,14 +3659,14 @@
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>34</v>
@@ -3795,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G85" s="15" t="s">
         <v>34</v>
@@ -3807,14 +3699,14 @@
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G86" s="15" t="s">
         <v>34</v>
@@ -3835,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>34</v>
@@ -3854,7 +3746,7 @@
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>34</v>
@@ -3866,14 +3758,14 @@
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="14" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>33</v>
@@ -3885,7 +3777,7 @@
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>41</v>
@@ -3894,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>33</v>
@@ -3936,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G92" s="15" t="s">
         <v>34</v>
@@ -3948,14 +3840,14 @@
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="24" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>32</v>
@@ -3967,7 +3859,7 @@
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="24" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>37</v>
@@ -3976,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>31</v>
@@ -3988,7 +3880,7 @@
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="24" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>41</v>
@@ -3997,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>33</v>
@@ -4009,14 +3901,14 @@
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G96" s="15" t="s">
         <v>34</v>
@@ -4028,7 +3920,7 @@
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>37</v>
@@ -4037,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G97" s="15" t="s">
         <v>34</v>
@@ -4049,14 +3941,14 @@
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="10" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>34</v>
@@ -4068,7 +3960,7 @@
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>41</v>
@@ -4077,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>33</v>
@@ -4119,7 +4011,7 @@
         <v>5</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>34</v>
@@ -4131,14 +4023,14 @@
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>32</v>
@@ -4150,7 +4042,7 @@
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>41</v>
@@ -4159,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>31</v>
@@ -4171,7 +4063,7 @@
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>41</v>
@@ -4180,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G104" s="16" t="s">
         <v>33</v>
@@ -4192,14 +4084,14 @@
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G105" s="15" t="s">
         <v>34</v>
@@ -4211,7 +4103,7 @@
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>37</v>
@@ -4220,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G106" s="15" t="s">
         <v>34</v>
@@ -4232,14 +4124,14 @@
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G107" s="15" t="s">
         <v>34</v>
@@ -4293,14 +4185,14 @@
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G110" s="15" t="s">
         <v>34</v>
@@ -4312,14 +4204,14 @@
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>34</v>
@@ -4331,7 +4223,7 @@
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>41</v>
@@ -4340,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>33</v>
@@ -4352,14 +4244,14 @@
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G113" s="18" t="s">
         <v>32</v>
@@ -4371,7 +4263,7 @@
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>37</v>
@@ -4380,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G114" s="13" t="s">
         <v>31</v>
@@ -4392,7 +4284,7 @@
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>41</v>
@@ -4401,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>33</v>
@@ -4455,14 +4347,14 @@
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G118" s="15" t="s">
         <v>34</v>
@@ -4474,14 +4366,14 @@
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G119" s="15" t="s">
         <v>34</v>
@@ -4493,7 +4385,7 @@
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>41</v>
@@ -4502,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G120" s="16" t="s">
         <v>33</v>
@@ -4514,14 +4406,14 @@
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="10" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G121" s="18" t="s">
         <v>32</v>
@@ -4533,7 +4425,7 @@
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>37</v>
@@ -4542,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G122" s="13" t="s">
         <v>31</v>
@@ -4554,7 +4446,7 @@
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>41</v>
@@ -4563,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>33</v>
@@ -4575,7 +4467,7 @@
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>41</v>
@@ -4584,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G124" s="15" t="s">
         <v>34</v>
@@ -4638,7 +4530,7 @@
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>37</v>
@@ -4647,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G127" s="13" t="s">
         <v>31</v>
@@ -4659,7 +4551,7 @@
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>41</v>
@@ -4668,7 +4560,7 @@
         <v>4</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>33</v>
@@ -4680,7 +4572,7 @@
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>41</v>
@@ -4689,7 +4581,7 @@
         <v>3</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G129" s="15" t="s">
         <v>34</v>
@@ -4743,7 +4635,7 @@
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>37</v>
@@ -4752,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G132" s="13" t="s">
         <v>31</v>
@@ -4764,7 +4656,7 @@
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>41</v>
@@ -4773,7 +4665,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>33</v>

--- a/Шаблоны/Scenar8.xlsx
+++ b/Шаблоны/Scenar8.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="240">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -744,6 +744,24 @@
   </si>
   <si>
     <t xml:space="preserve">Проверить нагрузку на трансформаторе Т1. По амперметру проверить наличие нагрузки на стороне 35 Т1. </t>
+  </si>
+  <si>
+    <t>ОПУ_2У_Ключ_В110</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить выключатель В 110 Заря.</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В110Заря_ЗеленаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 110 Заря по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В110Заря_Плакат</t>
+  </si>
+  <si>
+    <t>На ключ управления В 110 Заря вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
   </si>
 </sst>
 </file>
@@ -915,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -971,6 +989,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +1303,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45551</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1931,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,166 +3696,164 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>84</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="10" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E85" s="9">
-        <v>4</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>85</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="10" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E86" s="9">
+        <v>1</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>86</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="9">
-        <v>1</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="9"/>
       <c r="F87" s="14" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>87</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="10" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="E88" s="9">
+        <v>4</v>
+      </c>
       <c r="F88" s="14" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>89</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>90</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" s="9">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="9"/>
       <c r="F91" s="14" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>91</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E92" s="9">
-        <v>4</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>34</v>
+        <v>178</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3839,18 +3861,20 @@
         <v>92</v>
       </c>
       <c r="B93" s="9"/>
-      <c r="C93" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>32</v>
+      <c r="C93" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="9">
+        <v>1</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3858,20 +3882,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="9"/>
-      <c r="C94" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>37</v>
+      <c r="C94" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E94" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,39 +3903,39 @@
         <v>94</v>
       </c>
       <c r="B95" s="9"/>
-      <c r="C95" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>41</v>
+      <c r="C95" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E95" s="9">
-        <v>2</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>95</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>43</v>
+        <v>210</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>34</v>
+      <c r="F96" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3919,8 +3943,8 @@
         <v>96</v>
       </c>
       <c r="B97" s="9"/>
-      <c r="C97" s="10" t="s">
-        <v>212</v>
+      <c r="C97" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>37</v>
@@ -3929,50 +3953,50 @@
         <v>1</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>97</v>
       </c>
       <c r="B98" s="9"/>
-      <c r="C98" s="10" t="s">
-        <v>214</v>
+      <c r="C98" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E98" s="9">
+        <v>2</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>98</v>
       </c>
       <c r="B99" s="9"/>
-      <c r="C99" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" s="9">
-        <v>1</v>
-      </c>
+      <c r="C99" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>33</v>
+        <v>184</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3981,37 +4005,35 @@
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>44</v>
+        <v>212</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E100" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>100</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E101" s="9">
-        <v>5</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="9"/>
       <c r="F101" s="14" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>34</v>
@@ -4023,17 +4045,19 @@
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>32</v>
+        <v>186</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="9">
+        <v>1</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4042,19 +4066,19 @@
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E103" s="9">
-        <v>1</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4063,38 +4087,38 @@
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E104" s="9">
-        <v>2</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>104</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>43</v>
+        <v>218</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>34</v>
+        <v>188</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4103,19 +4127,19 @@
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="10" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E106" s="9">
         <v>1</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>34</v>
+        <v>215</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4124,158 +4148,158 @@
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E107" s="9">
+        <v>2</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>107</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E108" s="9">
-        <v>6</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>30</v>
+        <v>189</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>108</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>45</v>
+        <v>191</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E109" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="G109" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>109</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>40</v>
+        <v>219</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="E110" s="9"/>
-      <c r="F110" s="22" t="s">
-        <v>196</v>
+      <c r="F110" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="G110" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>110</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="22" t="s">
-        <v>197</v>
+        <v>50</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="9">
+        <v>6</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>111</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E112" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>112</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G113" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F113" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>113</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="10" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="9">
-        <v>2</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4290,34 +4314,32 @@
         <v>41</v>
       </c>
       <c r="E115" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>115</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E116" s="9">
-        <v>7</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>34</v>
+        <v>221</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4326,78 +4348,82 @@
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>45</v>
+        <v>222</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E117" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>117</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118" s="9"/>
+        <v>222</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" s="9">
+        <v>2</v>
+      </c>
       <c r="F118" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>118</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="22" t="s">
-        <v>196</v>
+        <v>50</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" s="9">
+        <v>7</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G119" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>119</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E120" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4406,38 +4432,36 @@
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="10" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>121</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="9">
-        <v>2</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4452,97 +4476,95 @@
         <v>41</v>
       </c>
       <c r="E123" s="9">
-        <v>2</v>
-      </c>
-      <c r="F123" s="26" t="s">
-        <v>224</v>
+        <v>1</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>123</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E124" s="9">
-        <v>3</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>124</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>44</v>
+        <v>223</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E125" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>125</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>45</v>
+        <v>223</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E126" s="9">
-        <v>8</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>126</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E127" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4551,103 +4573,103 @@
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E128" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>128</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E129" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="G129" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>129</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>44</v>
+        <v>84</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E130" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>130</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>45</v>
+        <v>82</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E131" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>131</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E132" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>31</v>
+        <v>92</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4656,18 +4678,81 @@
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E133" s="9">
+        <v>9</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>133</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" s="9">
+        <v>9</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
+        <v>134</v>
+      </c>
+      <c r="B135" s="9"/>
+      <c r="C135" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="9">
+        <v>1</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
+        <v>135</v>
+      </c>
+      <c r="B136" s="9"/>
+      <c r="C136" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D133" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E133" s="9">
+      <c r="D136" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="9">
         <v>4</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F136" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G133" s="16" t="s">
+      <c r="G136" s="16" t="s">
         <v>33</v>
       </c>
     </row>
